--- a/hardware/rev 1/Aries parts list.xlsx
+++ b/hardware/rev 1/Aries parts list.xlsx
@@ -112,9 +112,6 @@
     <t>18pF mica</t>
   </si>
   <si>
-    <t>C25-C36</t>
-  </si>
-  <si>
     <t>C37-C38</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
     <t>R8, R9, R23</t>
   </si>
   <si>
-    <t>R5-R7, R16, R22, R25, R25, R26</t>
-  </si>
-  <si>
     <t>RS stock number</t>
   </si>
   <si>
@@ -259,9 +253,6 @@
     <t>689-6719</t>
   </si>
   <si>
-    <t>C1-C32, C46-49, C54, C59- C60, C64-C67</t>
-  </si>
-  <si>
     <t>10nF 0805 50Vceramic</t>
   </si>
   <si>
@@ -359,6 +350,15 @@
   </si>
   <si>
     <t>467-3365</t>
+  </si>
+  <si>
+    <t>R5-R7, R16, R22, R24, R25, R26</t>
+  </si>
+  <si>
+    <t>C1-C32, C46-49, C54, C59-C60, C64-C67</t>
+  </si>
+  <si>
+    <t>C35-C36</t>
   </si>
 </sst>
 </file>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,19 +717,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -746,7 +746,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -794,10 +794,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -811,10 +811,10 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -828,10 +828,10 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -845,10 +845,10 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -862,10 +862,10 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -873,13 +873,13 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -938,7 +938,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -952,10 +952,10 @@
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -963,13 +963,13 @@
         <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -991,13 +991,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1005,13 +1005,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1019,13 +1019,13 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1033,13 +1033,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1047,13 +1047,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1061,13 +1061,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1075,13 +1075,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1089,13 +1089,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1103,13 +1103,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1117,13 +1117,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1131,13 +1131,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1145,13 +1145,13 @@
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1159,10 +1159,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1170,16 +1170,16 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
         <v>53</v>
       </c>
-      <c r="C31" t="s">
-        <v>54</v>
-      </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1187,13 +1187,13 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
         <v>55</v>
-      </c>
-      <c r="C32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1201,13 +1201,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1215,13 +1215,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1229,13 +1229,13 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
         <v>59</v>
-      </c>
-      <c r="C35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1243,13 +1243,13 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
         <v>61</v>
-      </c>
-      <c r="C36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1257,13 +1257,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
         <v>63</v>
-      </c>
-      <c r="C37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1271,13 +1271,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
         <v>65</v>
-      </c>
-      <c r="C38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1285,13 +1285,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1299,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1313,13 +1313,13 @@
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
         <v>71</v>
-      </c>
-      <c r="C41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1327,16 +1327,16 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" t="s">
         <v>73</v>
       </c>
-      <c r="C42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" t="s">
-        <v>74</v>
-      </c>
       <c r="E42" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1344,16 +1344,16 @@
         <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
